--- a/attendance-files/BMOD/BMOD Attendance - A.xlsx
+++ b/attendance-files/BMOD/BMOD Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="198">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1023,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1143,14 +1143,20 @@
     <xf borderId="19" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="19" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="E7" s="35">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:Z7,"A")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:Z7,"P")</f>
@@ -1738,7 +1744,9 @@
       <c r="Y7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="41"/>
+      <c r="Z7" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1760,7 +1768,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>40</v>
@@ -1819,7 +1827,9 @@
       <c r="Y8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="41"/>
+      <c r="Z8" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1837,7 +1847,7 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
@@ -1900,7 +1910,9 @@
       <c r="Y9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="41"/>
+      <c r="Z9" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1918,7 +1930,7 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
@@ -1981,7 +1993,9 @@
       <c r="Y10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="41"/>
+      <c r="Z10" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1999,11 +2013,11 @@
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>40</v>
@@ -2053,8 +2067,8 @@
       <c r="V11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="40" t="s">
-        <v>10</v>
+      <c r="W11" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="X11" s="40" t="s">
         <v>10</v>
@@ -2062,7 +2076,9 @@
       <c r="Y11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z11" s="41"/>
+      <c r="Z11" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -2084,7 +2100,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>40</v>
@@ -2143,7 +2159,9 @@
       <c r="Y12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="41"/>
+      <c r="Z12" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -2165,7 +2183,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>40</v>
@@ -2224,7 +2242,9 @@
       <c r="Y13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="41"/>
+      <c r="Z13" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -2246,7 +2266,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>40</v>
@@ -2305,7 +2325,9 @@
       <c r="Y14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z14" s="41"/>
+      <c r="Z14" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2327,7 +2349,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>40</v>
@@ -2386,7 +2408,9 @@
       <c r="Y15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="41"/>
+      <c r="Z15" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2408,7 +2432,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>40</v>
@@ -2467,7 +2491,9 @@
       <c r="Y16" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="41"/>
+      <c r="Z16" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2489,7 +2515,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>40</v>
@@ -2548,7 +2574,9 @@
       <c r="Y17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z17" s="41"/>
+      <c r="Z17" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2570,7 +2598,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>40</v>
@@ -2629,7 +2657,9 @@
       <c r="Y18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z18" s="41"/>
+      <c r="Z18" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2651,7 +2681,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>40</v>
@@ -2710,7 +2740,9 @@
       <c r="Y19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z19" s="41"/>
+      <c r="Z19" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2728,11 +2760,11 @@
       </c>
       <c r="E20" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>40</v>
@@ -2740,8 +2772,8 @@
       <c r="H20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="36" t="s">
-        <v>10</v>
+      <c r="I20" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>40</v>
@@ -2782,8 +2814,8 @@
       <c r="V20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="40" t="s">
-        <v>10</v>
+      <c r="W20" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>40</v>
@@ -2791,7 +2823,9 @@
       <c r="Y20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z20" s="41"/>
+      <c r="Z20" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2813,7 +2847,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>40</v>
@@ -2872,7 +2906,9 @@
       <c r="Y21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="41"/>
+      <c r="Z21" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2894,7 +2930,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>40</v>
@@ -2953,7 +2989,9 @@
       <c r="Y22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z22" s="41"/>
+      <c r="Z22" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2975,7 +3013,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>40</v>
@@ -3034,7 +3072,9 @@
       <c r="Y23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z23" s="41"/>
+      <c r="Z23" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3056,7 +3096,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>10</v>
@@ -3115,7 +3155,9 @@
       <c r="Y24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z24" s="41"/>
+      <c r="Z24" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3137,7 +3179,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>40</v>
@@ -3196,7 +3238,9 @@
       <c r="Y25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z25" s="41"/>
+      <c r="Z25" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3218,7 +3262,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>40</v>
@@ -3277,7 +3321,9 @@
       <c r="Y26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z26" s="41"/>
+      <c r="Z26" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3299,7 +3345,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>10</v>
@@ -3358,7 +3404,9 @@
       <c r="Y27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z27" s="41"/>
+      <c r="Z27" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3380,7 +3428,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>40</v>
@@ -3439,7 +3487,9 @@
       <c r="Y28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z28" s="41"/>
+      <c r="Z28" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3461,7 +3511,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>40</v>
@@ -3520,7 +3570,9 @@
       <c r="Y29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z29" s="41"/>
+      <c r="Z29" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3542,7 +3594,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>40</v>
@@ -3601,7 +3653,9 @@
       <c r="Y30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z30" s="41"/>
+      <c r="Z30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3623,7 +3677,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>40</v>
@@ -3682,7 +3736,9 @@
       <c r="Y31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z31" s="41"/>
+      <c r="Z31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3704,7 +3760,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>40</v>
@@ -3763,7 +3819,9 @@
       <c r="Y32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z32" s="41"/>
+      <c r="Z32" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3785,7 +3843,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>40</v>
@@ -3844,7 +3902,9 @@
       <c r="Y33" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z33" s="41"/>
+      <c r="Z33" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3866,7 +3926,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>40</v>
@@ -3925,7 +3985,9 @@
       <c r="Y34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z34" s="41"/>
+      <c r="Z34" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3947,7 +4009,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>40</v>
@@ -4006,7 +4068,9 @@
       <c r="Y35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z35" s="41"/>
+      <c r="Z35" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4028,7 +4092,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>40</v>
@@ -4087,7 +4151,9 @@
       <c r="Y36" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z36" s="41"/>
+      <c r="Z36" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4109,7 +4175,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>40</v>
@@ -4168,7 +4234,9 @@
       <c r="Y37" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z37" s="41"/>
+      <c r="Z37" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4190,7 +4258,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>40</v>
@@ -4249,7 +4317,9 @@
       <c r="Y38" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z38" s="41"/>
+      <c r="Z38" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4267,7 +4337,7 @@
       </c>
       <c r="E39" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
@@ -4330,7 +4400,9 @@
       <c r="Y39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z39" s="41"/>
+      <c r="Z39" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4352,7 +4424,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>40</v>
@@ -4411,7 +4483,9 @@
       <c r="Y40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z40" s="41"/>
+      <c r="Z40" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4433,7 +4507,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>40</v>
@@ -4492,7 +4566,9 @@
       <c r="Y41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z41" s="41"/>
+      <c r="Z41" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4514,7 +4590,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>40</v>
@@ -4573,7 +4649,9 @@
       <c r="Y42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z42" s="41"/>
+      <c r="Z42" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4595,7 +4673,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>40</v>
@@ -4654,7 +4732,9 @@
       <c r="Y43" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z43" s="41"/>
+      <c r="Z43" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4672,7 +4752,7 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
@@ -4735,7 +4815,9 @@
       <c r="Y44" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z44" s="41"/>
+      <c r="Z44" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4757,7 +4839,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>40</v>
@@ -4816,7 +4898,9 @@
       <c r="Y45" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z45" s="41"/>
+      <c r="Z45" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4838,7 +4922,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>40</v>
@@ -4897,7 +4981,9 @@
       <c r="Y46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z46" s="41"/>
+      <c r="Z46" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4919,7 +5005,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>40</v>
@@ -4978,7 +5064,9 @@
       <c r="Y47" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z47" s="41"/>
+      <c r="Z47" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -5000,7 +5088,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>40</v>
@@ -5059,7 +5147,9 @@
       <c r="Y48" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="41"/>
+      <c r="Z48" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5081,7 +5171,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>40</v>
@@ -5140,7 +5230,9 @@
       <c r="Y49" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z49" s="41"/>
+      <c r="Z49" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5162,7 +5254,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>40</v>
@@ -5215,13 +5307,15 @@
       <c r="W50" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="X50" s="42" t="s">
+      <c r="X50" s="43" t="s">
         <v>10</v>
       </c>
       <c r="Y50" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z50" s="41"/>
+      <c r="Z50" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5243,7 +5337,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>40</v>
@@ -5302,7 +5396,9 @@
       <c r="Y51" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z51" s="41"/>
+      <c r="Z51" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5320,7 +5416,7 @@
       </c>
       <c r="E52" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
@@ -5383,7 +5479,9 @@
       <c r="Y52" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z52" s="41"/>
+      <c r="Z52" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5405,7 +5503,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>40</v>
@@ -5464,7 +5562,9 @@
       <c r="Y53" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z53" s="41"/>
+      <c r="Z53" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5486,7 +5586,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>10</v>
@@ -5545,7 +5645,9 @@
       <c r="Y54" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z54" s="41"/>
+      <c r="Z54" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5563,7 +5665,7 @@
       </c>
       <c r="E55" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
@@ -5626,7 +5728,9 @@
       <c r="Y55" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z55" s="41"/>
+      <c r="Z55" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5648,7 +5752,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>40</v>
@@ -5707,7 +5811,9 @@
       <c r="Y56" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z56" s="41"/>
+      <c r="Z56" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5729,7 +5835,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>40</v>
@@ -5788,7 +5894,9 @@
       <c r="Y57" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z57" s="41"/>
+      <c r="Z57" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5806,7 +5914,7 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
@@ -5869,7 +5977,9 @@
       <c r="Y58" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z58" s="41"/>
+      <c r="Z58" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5891,7 +6001,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>40</v>
@@ -5950,7 +6060,9 @@
       <c r="Y59" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z59" s="41"/>
+      <c r="Z59" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5972,7 +6084,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>40</v>
@@ -6031,7 +6143,9 @@
       <c r="Y60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z60" s="41"/>
+      <c r="Z60" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6053,7 +6167,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>40</v>
@@ -6112,7 +6226,9 @@
       <c r="Y61" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z61" s="41"/>
+      <c r="Z61" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6134,7 +6250,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>10</v>
@@ -6193,7 +6309,9 @@
       <c r="Y62" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z62" s="41"/>
+      <c r="Z62" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6211,7 +6329,7 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
@@ -6274,7 +6392,9 @@
       <c r="Y63" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z63" s="41"/>
+      <c r="Z63" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6296,7 +6416,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>40</v>
@@ -6355,7 +6475,9 @@
       <c r="Y64" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z64" s="41"/>
+      <c r="Z64" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6377,7 +6499,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>40</v>
@@ -6436,7 +6558,9 @@
       <c r="Y65" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z65" s="41"/>
+      <c r="Z65" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6454,7 +6578,7 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
@@ -6517,7 +6641,9 @@
       <c r="Y66" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z66" s="41"/>
+      <c r="Z66" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6535,7 +6661,7 @@
       </c>
       <c r="E67" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
@@ -6598,7 +6724,9 @@
       <c r="Y67" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z67" s="41"/>
+      <c r="Z67" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6620,7 +6748,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>40</v>
@@ -6679,7 +6807,9 @@
       <c r="Y68" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z68" s="41"/>
+      <c r="Z68" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6697,7 +6827,7 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
@@ -6760,7 +6890,9 @@
       <c r="Y69" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z69" s="41"/>
+      <c r="Z69" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6782,7 +6914,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>40</v>
@@ -6841,7 +6973,9 @@
       <c r="Y70" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z70" s="41"/>
+      <c r="Z70" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6863,7 +6997,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>40</v>
@@ -6922,7 +7056,9 @@
       <c r="Y71" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z71" s="41"/>
+      <c r="Z71" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6940,7 +7076,7 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
@@ -7003,7 +7139,9 @@
       <c r="Y72" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z72" s="41"/>
+      <c r="Z72" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7025,7 +7163,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>40</v>
@@ -7084,7 +7222,9 @@
       <c r="Y73" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z73" s="41"/>
+      <c r="Z73" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7106,7 +7246,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>40</v>
@@ -7165,7 +7305,9 @@
       <c r="Y74" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z74" s="41"/>
+      <c r="Z74" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7183,7 +7325,7 @@
       </c>
       <c r="E75" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
@@ -7246,7 +7388,9 @@
       <c r="Y75" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z75" s="41"/>
+      <c r="Z75" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7268,7 +7412,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>40</v>
@@ -7327,7 +7471,9 @@
       <c r="Y76" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z76" s="41"/>
+      <c r="Z76" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -7349,7 +7495,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>40</v>
@@ -7408,7 +7554,9 @@
       <c r="Y77" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z77" s="41"/>
+      <c r="Z77" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -7426,7 +7574,7 @@
       </c>
       <c r="E78" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
@@ -7489,7 +7637,9 @@
       <c r="Y78" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z78" s="41"/>
+      <c r="Z78" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -7511,7 +7661,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>40</v>
@@ -7570,7 +7720,9 @@
       <c r="Y79" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z79" s="41"/>
+      <c r="Z79" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -7592,7 +7744,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>40</v>
@@ -7651,7 +7803,9 @@
       <c r="Y80" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z80" s="41"/>
+      <c r="Z80" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -7669,7 +7823,7 @@
       </c>
       <c r="E81" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
@@ -7732,7 +7886,9 @@
       <c r="Y81" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z81" s="41"/>
+      <c r="Z81" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -7750,7 +7906,7 @@
       </c>
       <c r="E82" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
@@ -7813,7 +7969,9 @@
       <c r="Y82" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z82" s="41"/>
+      <c r="Z82" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -7835,7 +7993,7 @@
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>10</v>
@@ -7894,7 +8052,9 @@
       <c r="Y83" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z83" s="41"/>
+      <c r="Z83" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -7916,7 +8076,7 @@
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>40</v>
@@ -7975,7 +8135,9 @@
       <c r="Y84" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z84" s="41"/>
+      <c r="Z84" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -7993,7 +8155,7 @@
       </c>
       <c r="E85" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
@@ -8044,7 +8206,7 @@
       <c r="U85" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="V85" s="42" t="s">
+      <c r="V85" s="43" t="s">
         <v>10</v>
       </c>
       <c r="W85" s="38" t="s">
@@ -8056,7 +8218,9 @@
       <c r="Y85" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z85" s="41"/>
+      <c r="Z85" s="40" t="s">
+        <v>10</v>
+      </c>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -8081,29 +8245,29 @@
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
-      <c r="L86" s="43"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="35"/>
-      <c r="N86" s="43"/>
+      <c r="N86" s="44"/>
       <c r="O86" s="35"/>
       <c r="P86" s="35"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
-      <c r="V86" s="41"/>
-      <c r="W86" s="41"/>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="41"/>
-      <c r="Z86" s="41"/>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" s="45"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="35">
         <v>81.0</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="34" t="s">
         <v>10</v>
       </c>
@@ -8115,34 +8279,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="41"/>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="41"/>
-      <c r="Z87" s="41"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="35">
         <v>82.0</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="34" t="s">
         <v>10</v>
       </c>
@@ -8154,34 +8318,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="41"/>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="41"/>
-      <c r="Z88" s="41"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="35">
         <v>83.0</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="34" t="s">
         <v>10</v>
       </c>
@@ -8193,34 +8357,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="41"/>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="41"/>
-      <c r="Z89" s="41"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="35">
         <v>84.0</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="34" t="s">
         <v>10</v>
       </c>
@@ -8232,34 +8396,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
-      <c r="W90" s="41"/>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="41"/>
-      <c r="Z90" s="41"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="45"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="35">
         <v>85.0</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="34" t="s">
         <v>10</v>
       </c>
@@ -8271,34 +8435,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="41"/>
-      <c r="X91" s="41"/>
-      <c r="Y91" s="41"/>
-      <c r="Z91" s="41"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="45"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="35">
         <v>86.0</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="34" t="s">
         <v>10</v>
       </c>
@@ -8310,55 +8474,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="41"/>
-      <c r="W92" s="41"/>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="41"/>
-      <c r="Z92" s="41"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="45"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="46"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="46"/>
-      <c r="V93" s="46"/>
-      <c r="W93" s="46"/>
-      <c r="X93" s="46"/>
-      <c r="Y93" s="46"/>
-      <c r="Z93" s="46"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
       <c r="AA93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
